--- a/data/output/predictions.xlsx
+++ b/data/output/predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ3"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,817 +436,381 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Sr.No</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>CRM ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>SBU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>Qtr of closure</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4</t>
+          <t>Account Name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>Opportunity Name</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>Expected TCV ($Mn)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>Deal Size bucket</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>Type of Business</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>Account Engagement</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>Client Relationship</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>Deal Coach</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>References</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 13</t>
+          <t>Solution Strength</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>Client Impression</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 15</t>
+          <t>Orals Score</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 16</t>
+          <t>Price Alignment</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 17</t>
+          <t>Primary L1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>Primary L2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 19</t>
+          <t>Secondary L1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 20</t>
+          <t>Secondary L2</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 21</t>
+          <t>Tertiary L1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 22</t>
+          <t>Tertiary L2</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 23</t>
+          <t>Bid Timeline</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 24</t>
+          <t>Bid-Team size</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 25</t>
+          <t>Incumbency Share</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 26</t>
+          <t>Bidder Rank</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 27</t>
+          <t>Price Position</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 28</t>
+          <t>Bid Qualification (BQ)  Score</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 29</t>
+          <t>Winnability/ BQ  Feedback</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>SBU</t>
+          <t>SBU Head Involved</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Qtr of closure</t>
+          <t>SL Heads Involved</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Expected TCV ($Mn)</t>
+          <t>Were we the lowest price? Y/N</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Deal Size bucket</t>
+          <t>Deal Scope</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type of Business</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Account Engagement</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Client Relationship</t>
+          <t>Client Partner/ Opp. Owner</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Deal Coach</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Bidder Rank</t>
+          <t>Predicted Deal Status</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Incumbency Share</t>
+          <t>Probability_Aborted</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Probability_Lost</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Solution Strength</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Client Impression</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Orals Score</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Price Alignment</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Price Position</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Bid Qualification (BQ)  Score</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Winnability/ BQ  Feedback</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>SBU Head Involved</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>SL Heads Involved</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Were we the lowest price? Y/N</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Bid Timeline</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Bid-Team size</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Deal Scope</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Client Partner/ Opp. Owner</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Deal Status</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Probability_Aborted</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Probability_Lost</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Probability_Won</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CRM ID</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SBU</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>434569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Qtr of closure</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deal Status</t>
+          <t>Q1'25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Account Name</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Opportunity Name</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Expected TCV ($Mn)</t>
-        </is>
+          <t>UPS IT Services</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>35</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Deal Size bucket</t>
+          <t>&lt;250M</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Type of Business</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Primary L1</t>
+          <t>High (Existing+Good)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Primary L2</t>
+          <t>Strong</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Secondary L1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Secondary L2</t>
-        </is>
-      </c>
+          <t>Active &amp; Available</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Tertiary L1</t>
+          <t>Strong (Covers all)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Tertiary L2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Detailed Remarks</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Bid Qualification (BQ)  Score</t>
-        </is>
-      </c>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Winnability/ BQ  Feedback</t>
+          <t>Solution</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>SBU Head Involved</t>
+          <t>Strong solution on Helpdesk and Network</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>SL Heads Involved</t>
+          <t>Relationship</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Were we the lowest price? Y/N</t>
+          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Bid Timeline</t>
+          <t>Capability_or_Credentials</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Bid-Team size</t>
+          <t>References (Scale, Domain, Usecase) &amp; Case Studies</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Deal Scope</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>DD</t>
-        </is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>High (&gt;50%)</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Client Partner/ Opp. Owner</t>
+          <t>Top</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
+          <t>Lowest</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.00138259818777442</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.9978402853012085</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.0007771317614242435</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>271483</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A Comms</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Q4'24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Verizon</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>VCG VZI Visible Operations</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>&lt;250M</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Quality 360° Deal Intelligence/Validation (incl win price)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Relationship</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Client Relationship (CXOs, decision makers, influencers)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Solution</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Technical Response Quality (coherent, competitive, consultative, competitive)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Clear upfront understanding of what will help us win, strong customer connect and relationship building, continuous in-person engagement with the customer helped us understand their needs and requirements, intelligence about target price, ability to address all customer requirements</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Sudarshan Chacko</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>Lost</t>
-        </is>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.00138259818777442</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.9978402853012085</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.0007771317614242435</v>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.01599434576928616</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.002619475359097123</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.981386125087738</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/predictions.xlsx
+++ b/data/output/predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>Bidder Rank</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>Incumbency Share</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Bidder Rank</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -753,17 +753,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>High (&gt;50%)</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Lowest</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -804,13 +804,467 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>0.01599434576928616</v>
+        <v>0.01617815718054771</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.002619475359097123</v>
+        <v>0.003556990763172507</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.981386125087738</v>
+        <v>0.9802649021148682</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>374228</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SAP CPIT CS CTW IT Operations 3.0</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High (Existing+Good)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Strong (Covers all)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Alliances/ Partnership fit</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Capability or Credentials</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Domain/ Functional Expertise</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Demo/ Show &amp; Tell/ Video</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1006522253155708</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.008802946656942368</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8905448317527771</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>340964</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Q2'25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dyson Ltd</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Project Lightning</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>54</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Strong (Covers all)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Client Relationship (CXOs, decision makers)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Commercials</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Deviation/fit to win price</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Lost</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.04881845414638519</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.8886223435401917</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.06255921721458435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>302778</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Q1'25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Amtrak</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tier 2 Operational Support</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>93</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>&lt;250M</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Strong (Covers all)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Capability_or_Credentials</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Delivery Readiness</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Solution</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Technical Response Quality (coherent, competitive, consultative)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.01585388742387295</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.02000870369374752</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.9641374349594116</v>
       </c>
     </row>
   </sheetData>
